--- a/biology/Mycologie/Laccaria_ochropurpurea/Laccaria_ochropurpurea.xlsx
+++ b/biology/Mycologie/Laccaria_ochropurpurea/Laccaria_ochropurpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laccaria ochropurpurea, de son nom vernaculaire en français le Laccaire ocre pourpré est une espèce de champignons basidiomycètes du genre Laccaria de la famille des Hydnangiaceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Nom binomial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lacaria ochropurpurea (Berk.) Peck, 1896
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les forêts de feuillus, souvent sous les chênes et les hêtres, occasionnel, on le trouve de juillet à octobre
 Canada, au Québec notamment et dans tout le nord des États-Unis, notamment en Ohio.
@@ -574,7 +590,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore de 4-12 cm de diam., convexe puis étalé, souvent déprimé, lisse ou squamuleux, 
 Il est un peu hygrophane et devient pourpre lilas, vieux rose ou crème au sec.
@@ -609,7 +627,9 @@
           <t>Sporée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanche à lilas pâle, les spores subglobuleuses et échinulées, 7-9 x 7-8,5 µm.
 </t>
@@ -641,6 +661,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
